--- a/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/unfreeze/ce-uniform/70681460/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/unfreeze/ce-uniform/70681460/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9988222718238831</v>
+        <v>0.9920223951339722</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9988908171653748</v>
+        <v>0.9922800064086914</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.99813312292099</v>
+        <v>0.969041109085083</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9816588759422302</v>
+        <v>0.9366328120231628</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9988981485366821</v>
+        <v>0.9922871589660645</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9988982677459717</v>
+        <v>0.9923443198204041</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9988993406295776</v>
+        <v>0.992389976978302</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9989032745361328</v>
+        <v>0.9923552274703979</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9988993406295776</v>
+        <v>0.992389976978302</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9988811612129211</v>
+        <v>0.9922641515731812</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9989082813262939</v>
+        <v>0.9924479722976685</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9947859644889832</v>
+        <v>0.953618049621582</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9988755583763123</v>
+        <v>0.9923944473266602</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9945400357246399</v>
+        <v>0.903464674949646</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9988945126533508</v>
+        <v>0.992340087890625</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9988915324211121</v>
+        <v>0.9923197627067566</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8974244594573975</v>
+        <v>0.8072349429130554</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9988877177238464</v>
+        <v>0.9923616647720337</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9986552000045776</v>
+        <v>0.9919638633728027</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9989017248153687</v>
+        <v>0.9923986792564392</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9988871216773987</v>
+        <v>0.9924206137657166</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.998900294303894</v>
+        <v>0.9923855066299438</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9989054203033447</v>
+        <v>0.9924055933952332</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9837364554405212</v>
+        <v>0.9382467269897461</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8585819005966187</v>
+        <v>0.7868018746376038</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9988947510719299</v>
+        <v>0.9922605156898499</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9988908171653748</v>
+        <v>0.9922800064086914</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9988853335380554</v>
+        <v>0.9923306703567505</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.998892605304718</v>
+        <v>0.99224853515625</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.998887836933136</v>
+        <v>0.9921805858612061</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9988697171211243</v>
+        <v>0.9923118948936462</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9927494525909424</v>
+        <v>0.9797056317329407</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9934288859367371</v>
+        <v>0.9531288146972656</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9947736859321594</v>
+        <v>0.9534265398979187</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9988941550254822</v>
+        <v>0.9923111200332642</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.994712769985199</v>
+        <v>0.9534220099449158</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9989076852798462</v>
+        <v>0.9923702478408813</v>
       </c>
     </row>
     <row r="39">
@@ -1519,14 +1519,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9273637533187866</v>
+        <v>0.578978955745697</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9925854802131653</v>
+        <v>0.979068398475647</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9988910555839539</v>
+        <v>0.9924023151397705</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9017077684402466</v>
+        <v>0.9302387237548828</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9927527904510498</v>
+        <v>0.9801620244979858</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.99479079246521</v>
+        <v>0.9534478783607483</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9927176237106323</v>
+        <v>0.9794493913650513</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9923521876335144</v>
+        <v>0.9794657826423645</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8704880475997925</v>
+        <v>0.8605088591575623</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9925927519798279</v>
+        <v>0.979842483997345</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9989070892333984</v>
+        <v>0.9924529194831848</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9926072359085083</v>
+        <v>0.9796035885810852</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9919941425323486</v>
+        <v>0.9778175950050354</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.998880922794342</v>
+        <v>0.9922053217887878</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9926072359085083</v>
+        <v>0.9796035885810852</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9924750924110413</v>
+        <v>0.9794754981994629</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9989020824432373</v>
+        <v>0.9923415184020996</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9989045858383179</v>
+        <v>0.9924142956733704</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9989068508148193</v>
+        <v>0.9924088716506958</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9947182536125183</v>
+        <v>0.9533560872077942</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9988729357719421</v>
+        <v>0.9924108982086182</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9988669157028198</v>
+        <v>0.9922454953193665</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.998889148235321</v>
+        <v>0.9924116730690002</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9989050626754761</v>
+        <v>0.9924114942550659</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9948187470436096</v>
+        <v>0.9535790085792542</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6261071562767029</v>
+        <v>0.486351490020752</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9948624968528748</v>
+        <v>0.9535861015319824</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9948624968528748</v>
+        <v>0.9535861015319824</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9946651458740234</v>
+        <v>0.9533278346061707</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9948624968528748</v>
+        <v>0.9535861015319824</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.982883632183075</v>
+        <v>0.9388476014137268</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9988922476768494</v>
+        <v>0.9923162460327148</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9893906712532043</v>
+        <v>0.9472185373306274</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9988781809806824</v>
+        <v>0.9921143054962158</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9948394894599915</v>
+        <v>0.9535048604011536</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9989047050476074</v>
+        <v>0.9924007654190063</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9988860487937927</v>
+        <v>0.9922310709953308</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9948394894599915</v>
+        <v>0.9535048604011536</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9988824725151062</v>
+        <v>0.9921432733535767</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9948394894599915</v>
+        <v>0.9535048604011536</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9989069700241089</v>
+        <v>0.9923436045646667</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9947147965431213</v>
+        <v>0.9535017609596252</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9988784193992615</v>
+        <v>0.9922109842300415</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9947147965431213</v>
+        <v>0.9535017609596252</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9988706707954407</v>
+        <v>0.9922074675559998</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9988706707954407</v>
+        <v>0.9922074675559998</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9989035129547119</v>
+        <v>0.9924557209014893</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9947881698608398</v>
+        <v>0.9535478949546814</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9988879561424255</v>
+        <v>0.9921899437904358</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9947543144226074</v>
+        <v>0.9534253478050232</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9988827109336853</v>
+        <v>0.9921844601631165</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9989092350006104</v>
+        <v>0.9924157857894897</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.998908519744873</v>
+        <v>0.9924120306968689</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9989089965820312</v>
+        <v>0.9924181699752808</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9989074468612671</v>
+        <v>0.9924110174179077</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9989087581634521</v>
+        <v>0.9924112558364868</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9989084005355835</v>
+        <v>0.9924123883247375</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9989036321640015</v>
+        <v>0.9924594759941101</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9555414915084839</v>
+        <v>0.8871316909790039</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.998903751373291</v>
+        <v>0.992436945438385</v>
       </c>
     </row>
     <row r="99">
@@ -3199,14 +3199,14 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6847299933433533</v>
+        <v>0.9393910765647888</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9988969564437866</v>
+        <v>0.9923823475837708</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9988998174667358</v>
+        <v>0.992404043674469</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.978687584400177</v>
+        <v>0.8647432327270508</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9816464781761169</v>
+        <v>0.9703230857849121</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9988839030265808</v>
+        <v>0.99224454164505</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9835003614425659</v>
+        <v>0.9400333762168884</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9989032745361328</v>
+        <v>0.9923821091651917</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9927177429199219</v>
+        <v>0.9800302386283875</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9836968779563904</v>
+        <v>0.9388152360916138</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9988840222358704</v>
+        <v>0.9923368096351624</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9988908171653748</v>
+        <v>0.9922800064086914</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9926437735557556</v>
+        <v>0.9796050786972046</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9925709366798401</v>
+        <v>0.9796913266181946</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9944759011268616</v>
+        <v>0.9532813429832458</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9988968372344971</v>
+        <v>0.9924412965774536</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9933561086654663</v>
+        <v>0.953022301197052</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9987393021583557</v>
+        <v>0.9917089343070984</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9988967180252075</v>
+        <v>0.9922870397567749</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9762220978736877</v>
+        <v>0.911405086517334</v>
       </c>
     </row>
     <row r="119">
@@ -3759,14 +3759,14 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9626984000205994</v>
+        <v>0.5479636192321777</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9988908171653748</v>
+        <v>0.9922800064086914</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9832630157470703</v>
+        <v>0.939079761505127</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9989104270935059</v>
+        <v>0.9924473762512207</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9832630157470703</v>
+        <v>0.939079761505127</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9989104270935059</v>
+        <v>0.9924473762512207</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9832630157470703</v>
+        <v>0.939079761505127</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9989006519317627</v>
+        <v>0.9923858642578125</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9754140973091125</v>
+        <v>0.9235669374465942</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9988908171653748</v>
+        <v>0.9922800064086914</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.8736796379089355</v>
+        <v>0.7857404947280884</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9747123122215271</v>
+        <v>0.867115318775177</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.998902440071106</v>
+        <v>0.9922980666160583</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9028929471969604</v>
+        <v>0.8215334415435791</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9988887906074524</v>
+        <v>0.9923386573791504</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9988607168197632</v>
+        <v>0.9923413991928101</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9988884329795837</v>
+        <v>0.992311418056488</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9985806941986084</v>
+        <v>0.987054169178009</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9989011287689209</v>
+        <v>0.992347240447998</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9988847374916077</v>
+        <v>0.9923100471496582</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9988939166069031</v>
+        <v>0.9923425316810608</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9988943934440613</v>
+        <v>0.9921784400939941</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9948882460594177</v>
+        <v>0.9257218241691589</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9988908171653748</v>
+        <v>0.9922800064086914</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9947801828384399</v>
+        <v>0.9535428285598755</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9989087581634521</v>
+        <v>0.9924088716506958</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9947801828384399</v>
+        <v>0.9535428285598755</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9988937973976135</v>
+        <v>0.9922388792037964</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.982883632183075</v>
+        <v>0.9388476014137268</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9988967180252075</v>
+        <v>0.9923656582832336</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9947656393051147</v>
+        <v>0.9538534879684448</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9815242886543274</v>
+        <v>0.90973961353302</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9988908171653748</v>
+        <v>0.9922800064086914</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9754155874252319</v>
+        <v>0.8746326565742493</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9989045858383179</v>
+        <v>0.9924545288085938</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9837063550949097</v>
+        <v>0.9392890334129333</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9989078044891357</v>
+        <v>0.9924140572547913</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9836339354515076</v>
+        <v>0.9388067126274109</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9989091157913208</v>
+        <v>0.9924323558807373</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9837058782577515</v>
+        <v>0.9389474391937256</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9989045858383179</v>
+        <v>0.9924375414848328</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.5274184346199036</v>
+        <v>0.8920102715492249</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9988943934440613</v>
+        <v>0.9922925233840942</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9983709454536438</v>
+        <v>0.9879498481750488</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.998880922794342</v>
+        <v>0.9922838807106018</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9944345355033875</v>
+        <v>0.9532873034477234</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9989092350006104</v>
+        <v>0.9923843741416931</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9590857625007629</v>
+        <v>0.9450092315673828</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9925066828727722</v>
+        <v>0.9795587658882141</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9929307699203491</v>
+        <v>0.9531391263008118</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9988908171653748</v>
+        <v>0.9922800064086914</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9925066828727722</v>
+        <v>0.9795587658882141</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9928800463676453</v>
+        <v>0.9529058933258057</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9988908171653748</v>
+        <v>0.9922800064086914</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9989006519317627</v>
+        <v>0.9923445582389832</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9988956451416016</v>
+        <v>0.992351233959198</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9989006519317627</v>
+        <v>0.9923445582389832</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9989006519317627</v>
+        <v>0.9923445582389832</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9988956451416016</v>
+        <v>0.992351233959198</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.998903751373291</v>
+        <v>0.9923987984657288</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9988880753517151</v>
+        <v>0.9921724796295166</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9988866448402405</v>
+        <v>0.9922836422920227</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9988921284675598</v>
+        <v>0.9923037886619568</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9988962411880493</v>
+        <v>0.99233078956604</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9833241105079651</v>
+        <v>0.9398179054260254</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9989092350006104</v>
+        <v>0.9924212098121643</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9989069700241089</v>
+        <v>0.9924370646476746</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9989053010940552</v>
+        <v>0.9924565553665161</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9989041090011597</v>
+        <v>0.9924185276031494</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9989023208618164</v>
+        <v>0.9923948049545288</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9988922476768494</v>
+        <v>0.9923924207687378</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9988935589790344</v>
+        <v>0.9923872947692871</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9577163457870483</v>
+        <v>0.8858986496925354</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9988995790481567</v>
+        <v>0.9923284649848938</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9988948702812195</v>
+        <v>0.9923107624053955</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9831438660621643</v>
+        <v>0.9393793940544128</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9927089214324951</v>
+        <v>0.9799532890319824</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9989107847213745</v>
+        <v>0.9924334287643433</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.998903751373291</v>
+        <v>0.9924295544624329</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9989082813262939</v>
+        <v>0.9924548864364624</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9988853335380554</v>
+        <v>0.9923336505889893</v>
       </c>
     </row>
     <row r="200">
@@ -6027,14 +6027,14 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9621909856796265</v>
+        <v>0.9157904982566833</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9989004135131836</v>
+        <v>0.9923713207244873</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9989068508148193</v>
+        <v>0.9923917651176453</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9988884329795837</v>
+        <v>0.9922439455986023</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.992616593837738</v>
+        <v>0.9796367287635803</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9988940358161926</v>
+        <v>0.9924426078796387</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9988962411880493</v>
+        <v>0.9923614263534546</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9605845212936401</v>
+        <v>0.8892561197280884</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9988777041435242</v>
+        <v>0.992143988609314</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.8980123400688171</v>
+        <v>0.8051701188087463</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9988986253738403</v>
+        <v>0.9923495054244995</v>
       </c>
     </row>
   </sheetData>
